--- a/NEW HR/DONE/PAJENAGO, FRANCIS.xlsx
+++ b/NEW HR/DONE/PAJENAGO, FRANCIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>4/25,26/2023</t>
+  </si>
+  <si>
+    <t>9/21,22/2023</t>
   </si>
 </sst>
 </file>
@@ -1548,9 +1551,9 @@
   <dimension ref="A2:K105"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A71"/>
+      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1723,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1730,7 +1733,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3162,15 +3165,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="42">
+        <v>45017</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
@@ -3178,15 +3185,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="42">
+        <v>45047</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -3194,15 +3205,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="42">
+        <v>45078</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="10"/>
@@ -3210,15 +3225,19 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="42">
+        <v>45108</v>
+      </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
@@ -3226,15 +3245,19 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="42">
+        <v>45139</v>
+      </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="41"/>
       <c r="E84" s="10"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="41"/>
       <c r="I84" s="10"/>
@@ -3242,7 +3265,9 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="42">
+        <v>45170</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="41"/>
@@ -3258,7 +3283,9 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="42">
+        <v>45200</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
       <c r="D86" s="41"/>
@@ -3274,7 +3301,9 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="42">
+        <v>45231</v>
+      </c>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
       <c r="D87" s="41"/>
@@ -3290,7 +3319,9 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="42">
+        <v>45261</v>
+      </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
       <c r="D88" s="41"/>
@@ -3627,7 +3658,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="C12" sqref="C12:C109"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3795,7 +3826,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>25.975000000000001</v>
+        <v>23.975000000000001</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4589,10 +4620,16 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="42">
+        <v>45170</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C45" s="14"/>
-      <c r="D45" s="41"/>
+      <c r="D45" s="41">
+        <v>2</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="21"/>
       <c r="G45" s="14" t="str">
@@ -4602,7 +4639,9 @@
       <c r="H45" s="41"/>
       <c r="I45" s="10"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
+      <c r="K45" s="21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>

--- a/NEW HR/DONE/PAJENAGO, FRANCIS.xlsx
+++ b/NEW HR/DONE/PAJENAGO, FRANCIS.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>12/11,21,26,27/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -650,14 +653,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -667,9 +673,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1560,9 +1563,9 @@
   <dimension ref="A2:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A71"/>
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="M10" sqref="M10"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,14 +1595,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1611,14 +1614,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1632,16 +1635,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1674,18 +1677,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1732,7 +1735,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.75</v>
+        <v>64</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1742,13 +1745,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>90</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
       <c r="M9" s="48">
         <f>SUM(E9,I9)</f>
-        <v>152.5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3346,13 +3349,15 @@
         <v>45261</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="41"/>
       <c r="E88" s="10"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="41"/>
       <c r="I88" s="10"/>
@@ -3360,7 +3365,9 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="50" t="s">
+        <v>72</v>
+      </c>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
       <c r="D89" s="41"/>
@@ -3376,10 +3383,16 @@
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="42">
+        <v>45292</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C90" s="14"/>
-      <c r="D90" s="41"/>
+      <c r="D90" s="41">
+        <v>1</v>
+      </c>
       <c r="E90" s="10"/>
       <c r="F90" s="21"/>
       <c r="G90" s="14" t="str">
@@ -3389,10 +3402,14 @@
       <c r="H90" s="41"/>
       <c r="I90" s="10"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="51">
+        <v>45303</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
+      <c r="A91" s="42">
+        <v>45323</v>
+      </c>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
       <c r="D91" s="41"/>
@@ -3408,7 +3425,9 @@
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="42">
+        <v>45352</v>
+      </c>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
       <c r="D92" s="41"/>
@@ -3424,7 +3443,9 @@
       <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+      <c r="A93" s="42">
+        <v>45383</v>
+      </c>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
       <c r="D93" s="41"/>
@@ -3440,7 +3461,9 @@
       <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+      <c r="A94" s="42">
+        <v>45413</v>
+      </c>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
       <c r="D94" s="41"/>
@@ -3456,7 +3479,9 @@
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="42">
+        <v>45444</v>
+      </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
       <c r="D95" s="41"/>
@@ -3472,7 +3497,9 @@
       <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
+      <c r="A96" s="42">
+        <v>45474</v>
+      </c>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
       <c r="D96" s="41"/>
@@ -3488,7 +3515,9 @@
       <c r="K96" s="21"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
+      <c r="A97" s="42">
+        <v>45505</v>
+      </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
       <c r="D97" s="41"/>
@@ -3504,7 +3533,9 @@
       <c r="K97" s="21"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
+      <c r="A98" s="42">
+        <v>45536</v>
+      </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
       <c r="D98" s="41"/>
@@ -3520,7 +3551,9 @@
       <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
+      <c r="A99" s="42">
+        <v>45566</v>
+      </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
       <c r="D99" s="41"/>
@@ -3536,7 +3569,9 @@
       <c r="K99" s="21"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
+      <c r="A100" s="42">
+        <v>45597</v>
+      </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
       <c r="D100" s="41"/>
@@ -3552,7 +3587,9 @@
       <c r="K100" s="21"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
+      <c r="A101" s="42">
+        <v>45627</v>
+      </c>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
       <c r="D101" s="41"/>
@@ -3633,17 +3670,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3711,14 +3748,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3730,14 +3767,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3751,14 +3788,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3791,18 +3828,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
